--- a/data-raw/fluxes/lf_05-bay/lf_05-bay_d_2020-02-03.xlsx
+++ b/data-raw/fluxes/lf_05-bay/lf_05-bay_d_2020-02-03.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Documents/data_working/data_packages/hypoxia.flux.analysis.1/inst/extdata/fluxes/lf_05-bay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/lf_05-bay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF86D78-4F06-F940-94BD-4A661D895336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78166764-57CE-5645-B0F6-F4A270E49E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="1640" windowWidth="18900" windowHeight="16940" xr2:uid="{101A82DF-E6B5-5B46-9986-3500AB660F6E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="11">
   <si>
     <t>time</t>
   </si>
@@ -62,16 +62,10 @@
     <t>run</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>oxygen</t>
   </si>
   <si>
     <t>21%</t>
-  </si>
-  <si>
-    <t>DMSO</t>
   </si>
   <si>
     <t>0.5%</t>
@@ -81,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,10 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -430,168 +423,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7685FC2E-8A1C-C645-8D24-132AF64BA898}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>-24</v>
+      </c>
+      <c r="C2">
+        <v>58.823999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="C3">
+        <v>70.766000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>70.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>70.302999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
+      <c r="B7">
         <v>-24</v>
       </c>
-      <c r="D2">
-        <v>58.823999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="C7">
+        <v>58.871000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>70.766000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="C8">
+        <v>70.647000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
+      <c r="B9">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>70.53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="C9">
+        <v>70.253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
+      <c r="B10">
         <v>48</v>
       </c>
-      <c r="D5">
-        <v>70.302999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="C10">
+        <v>69.918000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
+      <c r="B11">
         <v>72</v>
       </c>
-      <c r="D6">
-        <v>70.099999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>-24</v>
-      </c>
-      <c r="D7">
-        <v>58.871000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>70.647000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>70.253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>48</v>
-      </c>
-      <c r="D10">
-        <v>69.918000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C11">
-        <v>72</v>
-      </c>
-      <c r="D11">
         <v>69.600999999999999</v>
       </c>
     </row>
@@ -606,9 +563,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -628,7 +585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -645,7 +602,7 @@
         <v>10.574999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -663,7 +620,7 @@
         <v>61.021999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -681,7 +638,7 @@
         <v>111.15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -699,7 +656,7 @@
         <v>200.58600000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -717,7 +674,7 @@
         <v>358.99799999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -735,7 +692,7 @@
         <v>729.97</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -753,7 +710,7 @@
         <v>1438.634</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -770,7 +727,7 @@
         <v>2812.0949999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -787,7 +744,7 @@
         <v>237.98</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -805,7 +762,7 @@
         <v>251.114</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -823,7 +780,7 @@
         <v>186.76900000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -841,7 +798,7 @@
         <v>479.12799999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -859,7 +816,7 @@
         <v>396.08300000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -877,7 +834,7 @@
         <v>318.38</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -895,7 +852,7 @@
         <v>686.29300000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -913,7 +870,7 @@
         <v>605.63099999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -931,7 +888,7 @@
         <v>626.99400000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -949,7 +906,7 @@
         <v>1360.6220000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -967,7 +924,7 @@
         <v>1210.0239999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -985,7 +942,7 @@
         <v>1453.9849999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +960,7 @@
         <v>162.61500000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +978,7 @@
         <v>220.703</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +996,7 @@
         <v>182.93100000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1014,7 @@
         <v>266.80799999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1032,7 @@
         <v>322.97500000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1050,7 @@
         <v>451.702</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1068,7 @@
         <v>1003.595</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1086,7 @@
         <v>853.452</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1147,7 +1104,7 @@
         <v>441.512</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1165,7 +1122,7 @@
         <v>1131.7159999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1183,7 +1140,7 @@
         <v>854.22199999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1201,7 +1158,7 @@
         <v>841.303</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1175,7 @@
         <v>11.137</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +1194,7 @@
       </c>
       <c r="AI35" s="1"/>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1213,7 @@
       </c>
       <c r="AI36" s="1"/>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1275,7 +1232,7 @@
       </c>
       <c r="AI37" s="1"/>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1293,7 +1250,7 @@
         <v>360.00099999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1268,7 @@
         <v>709.96699999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1286,7 @@
         <v>1328.39</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1303,7 @@
         <v>2809.4879999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1363,7 +1320,7 @@
         <v>192.31299999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1381,7 +1338,7 @@
         <v>180.065</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1399,7 +1356,7 @@
         <v>164.04900000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1417,7 +1374,7 @@
         <v>286.995</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1435,7 +1392,7 @@
         <v>256.64400000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1453,7 +1410,7 @@
         <v>234.22499999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +1428,7 @@
         <v>247.666</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1489,7 +1446,7 @@
         <v>336.25200000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1464,7 @@
         <v>397.92599999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1525,7 +1482,7 @@
         <v>830.18200000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1543,7 +1500,7 @@
         <v>597.48</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1518,7 @@
         <v>726.11800000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1579,7 +1536,7 @@
         <v>170.35900000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1597,7 +1554,7 @@
         <v>174.876</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1615,7 +1572,7 @@
         <v>172.19300000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1590,7 @@
         <v>202.096</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1651,7 +1608,7 @@
         <v>257.14299999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1669,7 +1626,7 @@
         <v>310.89499999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1687,7 +1644,7 @@
         <v>448.47899999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1705,7 +1662,7 @@
         <v>416.10199999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1723,7 +1680,7 @@
         <v>477.947</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1741,7 +1698,7 @@
         <v>805.41</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1759,7 +1716,7 @@
         <v>528.56500000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1788,9 +1745,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +1767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1821,7 +1778,7 @@
         <v>5.8799999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1832,7 +1789,7 @@
         <v>0.1983</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1843,7 +1800,7 @@
         <v>0.33379999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1811,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1865,7 +1822,7 @@
         <v>0.64380000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1876,7 +1833,7 @@
         <v>0.91310000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1887,7 +1844,7 @@
         <v>1.1827000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1898,7 +1855,7 @@
         <v>1.4415</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1909,7 +1866,7 @@
         <v>0.79249999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1921,7 +1878,7 @@
         <v>0.81569999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1933,7 +1890,7 @@
         <v>0.80349999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +1902,7 @@
         <v>0.80110000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1957,7 +1914,7 @@
         <v>0.83530000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +1926,7 @@
         <v>0.80640000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1981,7 +1938,7 @@
         <v>0.72889999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1993,7 +1950,7 @@
         <v>0.72740000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2005,7 +1962,7 @@
         <v>0.78539999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2017,7 +1974,7 @@
         <v>0.67849999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2029,7 +1986,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2041,7 +1998,7 @@
         <v>0.58750000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2010,7 @@
         <v>0.78039999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2065,7 +2022,7 @@
         <v>0.83440000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2077,7 +2034,7 @@
         <v>0.84130000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2089,7 +2046,7 @@
         <v>0.84660000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2101,7 +2058,7 @@
         <v>0.81410000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2113,7 +2070,7 @@
         <v>0.76839999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2125,7 +2082,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2094,7 @@
         <v>0.78259999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2106,7 @@
         <v>0.72030000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2161,7 +2118,7 @@
         <v>0.64759999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2173,7 +2130,7 @@
         <v>0.59289999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2185,7 +2142,7 @@
         <v>0.64470000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2197,7 +2154,7 @@
         <v>0.88190000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2209,7 +2166,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2221,7 +2178,7 @@
         <v>0.81589999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +2190,7 @@
         <v>0.82010000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2245,7 +2202,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2257,7 +2214,7 @@
         <v>0.81269999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2269,7 +2226,7 @@
         <v>0.86750000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2281,7 +2238,7 @@
         <v>0.81659999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2293,7 +2250,7 @@
         <v>0.85540000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2305,7 +2262,7 @@
         <v>0.75280000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2317,7 +2274,7 @@
         <v>0.76529999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2329,7 +2286,7 @@
         <v>0.81230000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2341,7 +2298,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2353,7 +2310,7 @@
         <v>0.90139999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2365,7 +2322,7 @@
         <v>0.88419999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2377,7 +2334,7 @@
         <v>0.88619999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +2346,7 @@
         <v>0.82120000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2401,7 +2358,7 @@
         <v>0.82769999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2413,7 +2370,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2425,7 +2382,7 @@
         <v>0.80520000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2437,7 +2394,7 @@
         <v>0.84560000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2449,7 +2406,7 @@
         <v>0.81189999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2461,7 +2418,7 @@
         <v>0.75039999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -2484,9 +2441,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2506,7 +2463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2517,7 +2474,7 @@
         <v>2036.306</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2528,7 +2485,7 @@
         <v>3852.0140000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2539,7 +2496,7 @@
         <v>3593.558</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2550,7 +2507,7 @@
         <v>5307.9920000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2561,7 +2518,7 @@
         <v>10588.688</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2572,7 +2529,7 @@
         <v>21391.618999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2583,7 +2540,7 @@
         <v>32393.699000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2594,7 +2551,7 @@
         <v>53461.847999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2605,7 +2562,7 @@
         <v>2933.8870000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2617,7 +2574,7 @@
         <v>2831.5770000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2629,7 +2586,7 @@
         <v>2955.58</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2641,7 +2598,7 @@
         <v>6565.3950000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2653,7 +2610,7 @@
         <v>6126.79</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2665,7 +2622,7 @@
         <v>6007.6729999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2677,7 +2634,7 @@
         <v>13440.928</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2689,7 +2646,7 @@
         <v>11174.819</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2701,7 +2658,7 @@
         <v>13356.362999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2713,7 +2670,7 @@
         <v>25824.585999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2725,7 +2682,7 @@
         <v>27183.254000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2737,7 +2694,7 @@
         <v>23497.134999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2749,7 +2706,7 @@
         <v>3027.279</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2761,7 +2718,7 @@
         <v>3044.2089999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2773,7 +2730,7 @@
         <v>3171.7559999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2785,7 +2742,7 @@
         <v>6610.1639999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2797,7 +2754,7 @@
         <v>6997.326</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2809,7 +2766,7 @@
         <v>6465.3469999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2821,7 +2778,7 @@
         <v>16113.307000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2833,7 +2790,7 @@
         <v>16767.248</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2845,7 +2802,7 @@
         <v>13779.541999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2857,7 +2814,7 @@
         <v>26462.963</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2869,7 +2826,7 @@
         <v>29273.455000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2881,7 +2838,7 @@
         <v>26003.171999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2893,7 +2850,7 @@
         <v>2980.991</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2905,7 +2862,7 @@
         <v>2983.1550000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2917,7 +2874,7 @@
         <v>3020.7950000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2929,7 +2886,7 @@
         <v>4719.5140000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2941,7 +2898,7 @@
         <v>5484.1030000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2953,7 +2910,7 @@
         <v>5120.7510000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2965,7 +2922,7 @@
         <v>8317.3680000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2977,7 +2934,7 @@
         <v>10097.002</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2989,7 +2946,7 @@
         <v>9104.9609999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3001,7 +2958,7 @@
         <v>18067.495999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3013,7 +2970,7 @@
         <v>13258.895</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -3025,7 +2982,7 @@
         <v>13718.59</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +2994,7 @@
         <v>3016.933</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3049,7 +3006,7 @@
         <v>2985.45</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3061,7 +3018,7 @@
         <v>3311.0509999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3073,7 +3030,7 @@
         <v>6593.8119999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3085,7 +3042,7 @@
         <v>5084.2790000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3097,7 +3054,7 @@
         <v>5030.9449999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3109,7 +3066,7 @@
         <v>9884.4419999999991</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3121,7 +3078,7 @@
         <v>8629.1790000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3133,7 +3090,7 @@
         <v>9302.9920000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -3145,7 +3102,7 @@
         <v>16552.863000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -3157,7 +3114,7 @@
         <v>11574.308999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
